--- a/Levy - agent increase.xlsx
+++ b/Levy - agent increase.xlsx
@@ -1594,11 +1594,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="196933680"/>
-        <c:axId val="196935248"/>
+        <c:axId val="153390936"/>
+        <c:axId val="153391328"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="196933680"/>
+        <c:axId val="153390936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1641,7 +1641,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196935248"/>
+        <c:crossAx val="153391328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1649,7 +1649,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196935248"/>
+        <c:axId val="153391328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1700,7 +1700,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196933680"/>
+        <c:crossAx val="153390936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2606,7 +2606,7 @@
   <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="T72" sqref="T72"/>
+      <selection activeCell="U72" sqref="U72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
